--- a/PO.xlsx
+++ b/PO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/auto/po_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2214434-C080-D442-A248-75AF2C028C3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259193D-F5E6-9141-AE17-34C57B37E6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="17040" xr2:uid="{59E52328-1314-334A-B76E-0A2D06155E83}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>kwang2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>miaomili</t>
   </si>
@@ -45,40 +42,74 @@
     <t>USER_NAME</t>
   </si>
   <si>
-    <t>kwang2@cisco.com</t>
-  </si>
-  <si>
-    <t>kwatyh@yahoo.com</t>
-  </si>
-  <si>
     <t>EMAIL_1</t>
   </si>
   <si>
     <t>EMAIL_2</t>
+  </si>
+  <si>
+    <t>julwu</t>
+  </si>
+  <si>
+    <t>julwu@cisco.com</t>
+  </si>
+  <si>
+    <t>miaomili@cisco.com</t>
+  </si>
+  <si>
+    <t>joiyce.jh.guo@foxconn.com</t>
+  </si>
+  <si>
+    <t>frafan</t>
+  </si>
+  <si>
+    <t>frafan@cisco.com</t>
+  </si>
+  <si>
+    <t>denise.xh.gu@foxconn.com</t>
+  </si>
+  <si>
+    <t>kenneth.ky.lai@foxconn.com</t>
+  </si>
+  <si>
+    <t>lily.zl.yang@foxconn.com</t>
+  </si>
+  <si>
+    <t>jasper.j.guo@foxconn.com</t>
+  </si>
+  <si>
+    <t>susan.z.he@foxconn.com</t>
+  </si>
+  <si>
+    <t>lindli3</t>
+  </si>
+  <si>
+    <t>lindli3@cisco.com</t>
+  </si>
+  <si>
+    <t>vicky.w.ye@foxconn.com</t>
+  </si>
+  <si>
+    <t>mary.qy.zhang@foxconn.com</t>
+  </si>
+  <si>
+    <t>manfan</t>
+  </si>
+  <si>
+    <t>manfan@cisco.com</t>
+  </si>
+  <si>
+    <t>yeates.y.tian@foxconn.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,17 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,59 +451,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3958E32-0536-1D4A-9CA3-FB18DC7FC20E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>55510179466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>55510163951</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>55510177318</v>
+      <c r="A3">
+        <v>55510179268</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>55510176608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>55510177353</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>55510179281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>55510179428</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>55510180639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>55510180774</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>55510182151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>55510182021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>55510182154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>55510181905</v>
+      </c>
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>55510182018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>55510181684</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>55510180825</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>55510174821</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>55510180651</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>55510180656</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>55510179874</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>55510182274</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>55510182287</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>55510179268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>55510182102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>55510182098</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>55510182284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
